--- a/output/tables/mesh/level1/stats.xlsx
+++ b/output/tables/mesh/level1/stats.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O94"/>
+  <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -441,7 +441,7 @@
         </is>
       </c>
       <c r="B2">
-        <v>-1.635595077171636E-05</v>
+        <v>-0.0001608502144327285</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -465,16 +465,16 @@
         <v>20</v>
       </c>
       <c r="H2">
-        <v>101</v>
+        <v>59</v>
       </c>
       <c r="I2">
-        <v>0.898</v>
+        <v>0.09</v>
       </c>
       <c r="J2">
-        <v>-0.0003690304068521624</v>
+        <v>-0.0004068825944230658</v>
       </c>
       <c r="K2">
-        <v>0.0002615065090074923</v>
+        <v>2.660389819807586E-05</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -487,7 +487,7 @@
         </is>
       </c>
       <c r="N2">
-        <v>0.898</v>
+        <v>0.09</v>
       </c>
       <c r="O2" t="inlineStr">
         <is>
@@ -502,7 +502,7 @@
         </is>
       </c>
       <c r="B3">
-        <v>3.175114316269069E-05</v>
+        <v>-7.875765659981862E-05</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -526,16 +526,16 @@
         <v>20</v>
       </c>
       <c r="H3">
-        <v>109</v>
+        <v>90</v>
       </c>
       <c r="I3">
-        <v>0.898</v>
+        <v>0.596</v>
       </c>
       <c r="J3">
-        <v>-0.0002315709834184829</v>
+        <v>-0.0002542432883583073</v>
       </c>
       <c r="K3">
-        <v>0.0003576304964348909</v>
+        <v>0.0001260446297729407</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
@@ -548,7 +548,7 @@
         </is>
       </c>
       <c r="N3">
-        <v>0.898</v>
+        <v>0.596</v>
       </c>
       <c r="O3" t="inlineStr">
         <is>
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="B4">
-        <v>0.0003349914714184619</v>
+        <v>0.0001456581067030307</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -587,16 +587,16 @@
         <v>20</v>
       </c>
       <c r="H4">
-        <v>170</v>
+        <v>150</v>
       </c>
       <c r="I4">
-        <v>0.014</v>
+        <v>0.097</v>
       </c>
       <c r="J4">
-        <v>5.158921548210644E-05</v>
+        <v>-4.326594099299599E-05</v>
       </c>
       <c r="K4">
-        <v>0.0005796106234153499</v>
+        <v>0.0003096732541538685</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -609,22 +609,22 @@
         </is>
       </c>
       <c r="N4">
-        <v>0.014</v>
+        <v>0.097</v>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Health Care Quality, Access, and Evaluation</t>
+          <t>Information Science</t>
         </is>
       </c>
       <c r="B5">
-        <v>0.0001975658088613749</v>
+        <v>0.0002680749094133592</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -648,16 +648,16 @@
         <v>20</v>
       </c>
       <c r="H5">
-        <v>142</v>
+        <v>188</v>
       </c>
       <c r="I5">
-        <v>0.177</v>
+        <v>0.001</v>
       </c>
       <c r="J5">
-        <v>-7.171956368201332E-05</v>
+        <v>0.0001173972104609525</v>
       </c>
       <c r="K5">
-        <v>0.0004851315021422605</v>
+        <v>0.000394300449685323</v>
       </c>
       <c r="L5" t="inlineStr">
         <is>
@@ -670,22 +670,22 @@
         </is>
       </c>
       <c r="N5">
-        <v>0.177</v>
+        <v>0.001</v>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Information Science</t>
+          <t>Health Care Quality, Access, and Evaluation</t>
         </is>
       </c>
       <c r="B6">
-        <v>0.0004627624294379401</v>
+        <v>6.247890886504131E-05</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -709,16 +709,16 @@
         <v>20</v>
       </c>
       <c r="H6">
-        <v>187</v>
+        <v>124</v>
       </c>
       <c r="I6">
-        <v>0.001</v>
+        <v>0.498</v>
       </c>
       <c r="J6">
-        <v>0.0002157049633365</v>
+        <v>-0.000115936166853186</v>
       </c>
       <c r="K6">
-        <v>0.0007024910790606238</v>
+        <v>0.0002717821106188781</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -731,11 +731,11 @@
         </is>
       </c>
       <c r="N6">
-        <v>0.001</v>
+        <v>0.498</v>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="B7">
-        <v>0.0004937513507059957</v>
+        <v>0.0003316041651256244</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -776,10 +776,10 @@
         <v>8.2E-05</v>
       </c>
       <c r="J7">
-        <v>0.0002936863675454128</v>
+        <v>0.0001979541931511481</v>
       </c>
       <c r="K7">
-        <v>0.0007078781736830915</v>
+        <v>0.0004635840931417971</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -807,7 +807,7 @@
         </is>
       </c>
       <c r="B8">
-        <v>-0.0001710482628281928</v>
+        <v>-0.0001551603817356672</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -831,16 +831,16 @@
         <v>20</v>
       </c>
       <c r="H8">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="I8">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="J8">
-        <v>-0.0003154646677686535</v>
+        <v>-0.0003060742578975579</v>
       </c>
       <c r="K8">
-        <v>-6.103398296193304E-05</v>
+        <v>-5.818306421910796E-05</v>
       </c>
       <c r="L8" t="inlineStr">
         <is>
@@ -853,7 +853,7 @@
         </is>
       </c>
       <c r="N8">
-        <v>0.003</v>
+        <v>0.001</v>
       </c>
       <c r="O8" t="inlineStr">
         <is>
@@ -868,7 +868,7 @@
         </is>
       </c>
       <c r="B9">
-        <v>1.858145012316605E-05</v>
+        <v>1.765893529006112E-05</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -898,10 +898,10 @@
         <v>0.701</v>
       </c>
       <c r="J9">
-        <v>-0.0001301945530186032</v>
+        <v>-8.484736300748549E-05</v>
       </c>
       <c r="K9">
-        <v>0.0001460520257332077</v>
+        <v>8.19421320875424E-05</v>
       </c>
       <c r="L9" t="inlineStr">
         <is>
@@ -925,11 +925,11 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Male</t>
+          <t>Mathematical Concepts</t>
         </is>
       </c>
       <c r="B10">
-        <v>-0.0001755489783098251</v>
+        <v>0.0003083824036025368</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -953,16 +953,16 @@
         <v>20</v>
       </c>
       <c r="H10">
-        <v>20</v>
+        <v>205</v>
       </c>
       <c r="I10">
-        <v>0.000708</v>
+        <v>1.91E-05</v>
       </c>
       <c r="J10">
-        <v>-0.0002825315877874202</v>
+        <v>0.000199773749862253</v>
       </c>
       <c r="K10">
-        <v>-6.562668672973303E-05</v>
+        <v>0.0004426341841658327</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -975,22 +975,22 @@
         </is>
       </c>
       <c r="N10">
-        <v>0.000708</v>
+        <v>1.91E-05</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>****</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Mathematical Concepts</t>
+          <t>Male</t>
         </is>
       </c>
       <c r="B11">
-        <v>0.0004981404850822556</v>
+        <v>-0.000124890987014897</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1014,16 +1014,16 @@
         <v>20</v>
       </c>
       <c r="H11">
-        <v>203</v>
+        <v>24</v>
       </c>
       <c r="I11">
-        <v>3.62E-05</v>
+        <v>0.001</v>
       </c>
       <c r="J11">
-        <v>0.0003128744480877023</v>
+        <v>-0.0002096386924550732</v>
       </c>
       <c r="K11">
-        <v>0.0007197603123630462</v>
+        <v>-4.922864093662811E-05</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1036,11 +1036,11 @@
         </is>
       </c>
       <c r="N11">
-        <v>3.62E-05</v>
+        <v>0.001</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>****</t>
+          <t>**</t>
         </is>
       </c>
     </row>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B12">
-        <v>-0.0004242626499096894</v>
+        <v>-0.0003489599204532372</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1081,10 +1081,10 @@
         <v>1.91E-06</v>
       </c>
       <c r="J12">
-        <v>-0.000501269911393241</v>
+        <v>-0.0003862513062259935</v>
       </c>
       <c r="K12">
-        <v>-0.0003479677343503847</v>
+        <v>-0.0003034083400440288</v>
       </c>
       <c r="L12" t="inlineStr">
         <is>
@@ -1112,7 +1112,7 @@
         </is>
       </c>
       <c r="B13">
-        <v>-0.0003641199687844168</v>
+        <v>-0.0002833265575444672</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1142,10 +1142,10 @@
         <v>1.91E-06</v>
       </c>
       <c r="J13">
-        <v>-0.0004540220972816061</v>
+        <v>-0.0003343505949560795</v>
       </c>
       <c r="K13">
-        <v>-0.0002866695177304479</v>
+        <v>-0.0002306062651118449</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1173,7 +1173,7 @@
         </is>
       </c>
       <c r="B14">
-        <v>-2.727523708837638E-05</v>
+        <v>-6.074094916120725E-05</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
@@ -1197,16 +1197,16 @@
         <v>20</v>
       </c>
       <c r="H14">
-        <v>99</v>
+        <v>78</v>
       </c>
       <c r="I14">
-        <v>0.841</v>
+        <v>0.33</v>
       </c>
       <c r="J14">
-        <v>-0.0002036982143264013</v>
+        <v>-0.0001804644851212812</v>
       </c>
       <c r="K14">
-        <v>0.0001705253672201468</v>
+        <v>6.84090204247579E-05</v>
       </c>
       <c r="L14" t="inlineStr">
         <is>
@@ -1219,7 +1219,7 @@
         </is>
       </c>
       <c r="N14">
-        <v>0.841</v>
+        <v>0.33</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1234,7 +1234,7 @@
         </is>
       </c>
       <c r="B15">
-        <v>-9.868696084414292E-05</v>
+        <v>-0.0001265973837481082</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
@@ -1258,16 +1258,16 @@
         <v>20</v>
       </c>
       <c r="H15">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="I15">
-        <v>0.024</v>
+        <v>0.000322</v>
       </c>
       <c r="J15">
-        <v>-0.000205887858818706</v>
+        <v>-0.0001879819057980113</v>
       </c>
       <c r="K15">
-        <v>-2.312084917721656E-05</v>
+        <v>-6.710979452930578E-05</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1280,22 +1280,22 @@
         </is>
       </c>
       <c r="N15">
-        <v>0.024</v>
+        <v>0.000322</v>
       </c>
       <c r="O15" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Physiological Phenomena</t>
+          <t>Geographic Locations</t>
         </is>
       </c>
       <c r="B16">
-        <v>-0.0002016169181243003</v>
+        <v>-0.0001023019157135161</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
@@ -1319,16 +1319,16 @@
         <v>20</v>
       </c>
       <c r="H16">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="I16">
-        <v>4.77E-05</v>
+        <v>0.002</v>
       </c>
       <c r="J16">
-        <v>-0.0002939507971316085</v>
+        <v>-0.0001626030460359966</v>
       </c>
       <c r="K16">
-        <v>-9.750760782863287E-05</v>
+        <v>-4.8364047196387E-05</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1341,22 +1341,22 @@
         </is>
       </c>
       <c r="N16">
-        <v>4.77E-05</v>
+        <v>0.002</v>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>****</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Geographic Locations</t>
+          <t>Health Care Facilities, Manpower, and Services</t>
         </is>
       </c>
       <c r="B17">
-        <v>-2.576432458986956E-05</v>
+        <v>-0.000151270106783813</v>
       </c>
       <c r="C17" t="inlineStr">
         <is>
@@ -1380,16 +1380,16 @@
         <v>20</v>
       </c>
       <c r="H17">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0.409</v>
+        <v>1.91E-06</v>
       </c>
       <c r="J17">
-        <v>-0.0001046296710827287</v>
+        <v>-0.0002334137172532861</v>
       </c>
       <c r="K17">
-        <v>6.176104799160735E-05</v>
+        <v>-0.0001131419326638243</v>
       </c>
       <c r="L17" t="inlineStr">
         <is>
@@ -1402,22 +1402,22 @@
         </is>
       </c>
       <c r="N17">
-        <v>0.409</v>
+        <v>1.91E-06</v>
       </c>
       <c r="O17" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>****</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Physical Phenomena</t>
+          <t>Physiological Phenomena</t>
         </is>
       </c>
       <c r="B18">
-        <v>-9.194652897162492E-05</v>
+        <v>-0.0001594739496794599</v>
       </c>
       <c r="C18" t="inlineStr">
         <is>
@@ -1441,16 +1441,16 @@
         <v>20</v>
       </c>
       <c r="H18">
-        <v>42</v>
+        <v>7</v>
       </c>
       <c r="I18">
-        <v>0.017</v>
+        <v>3.62E-05</v>
       </c>
       <c r="J18">
-        <v>-0.0001696587768267088</v>
+        <v>-0.0002184471357209133</v>
       </c>
       <c r="K18">
-        <v>-1.179353015510006E-05</v>
+        <v>-8.726131875953056E-05</v>
       </c>
       <c r="L18" t="inlineStr">
         <is>
@@ -1463,22 +1463,22 @@
         </is>
       </c>
       <c r="N18">
-        <v>0.017</v>
+        <v>3.62E-05</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>****</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Health Care Facilities, Manpower, and Services</t>
+          <t>Physical Phenomena</t>
         </is>
       </c>
       <c r="B19">
-        <v>-0.0001514982906696744</v>
+        <v>-8.349275116746905E-05</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -1502,16 +1502,16 @@
         <v>20</v>
       </c>
       <c r="H19">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="I19">
-        <v>6.29E-05</v>
+        <v>0.001</v>
       </c>
       <c r="J19">
-        <v>-0.0002150255333485179</v>
+        <v>-0.0001304480576473981</v>
       </c>
       <c r="K19">
-        <v>-8.877697411780529E-05</v>
+        <v>-3.0733029720061E-05</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -1524,22 +1524,22 @@
         </is>
       </c>
       <c r="N19">
-        <v>6.29E-05</v>
+        <v>0.001</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
-          <t>****</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Genetic Phenomena</t>
+          <t>Social Sciences</t>
         </is>
       </c>
       <c r="B20">
-        <v>-0.0001906638219489996</v>
+        <v>-0.0001375261159816846</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -1563,16 +1563,16 @@
         <v>20</v>
       </c>
       <c r="H20">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I20">
-        <v>0.000168</v>
+        <v>0.000322</v>
       </c>
       <c r="J20">
-        <v>-0.0002554926890807044</v>
+        <v>-0.0001953062830539831</v>
       </c>
       <c r="K20">
-        <v>-0.000107723695618513</v>
+        <v>-6.803148096514014E-05</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -1585,7 +1585,7 @@
         </is>
       </c>
       <c r="N20">
-        <v>0.000168</v>
+        <v>0.000322</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
@@ -1596,11 +1596,11 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Musculoskeletal and Neural Physiological Phenomena</t>
+          <t>Pathological Conditions, Signs and Symptoms</t>
         </is>
       </c>
       <c r="B21">
-        <v>-0.0002799340085537552</v>
+        <v>0.0001365792438964366</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -1624,16 +1624,16 @@
         <v>20</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>180</v>
       </c>
       <c r="I21">
-        <v>1.91E-06</v>
+        <v>0.004</v>
       </c>
       <c r="J21">
-        <v>-0.0003497355209541813</v>
+        <v>4.604125443342707E-05</v>
       </c>
       <c r="K21">
-        <v>-0.0001975117571713932</v>
+        <v>0.0002304123086985204</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -1646,22 +1646,22 @@
         </is>
       </c>
       <c r="N21">
-        <v>1.91E-06</v>
+        <v>0.004</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>****</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Social Sciences</t>
+          <t>Therapeutics</t>
         </is>
       </c>
       <c r="B22">
-        <v>-0.0001148088141628953</v>
+        <v>-3.985046816592659E-05</v>
       </c>
       <c r="C22" t="inlineStr">
         <is>
@@ -1685,16 +1685,16 @@
         <v>20</v>
       </c>
       <c r="H22">
-        <v>42</v>
+        <v>78</v>
       </c>
       <c r="I22">
-        <v>0.017</v>
+        <v>0.33</v>
       </c>
       <c r="J22">
-        <v>-0.0002013362264981645</v>
+        <v>-0.0001007882779425584</v>
       </c>
       <c r="K22">
-        <v>-2.153853309821936E-05</v>
+        <v>2.817423178539546E-05</v>
       </c>
       <c r="L22" t="inlineStr">
         <is>
@@ -1707,22 +1707,22 @@
         </is>
       </c>
       <c r="N22">
-        <v>0.017</v>
+        <v>0.33</v>
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Therapeutics</t>
+          <t>Genetic Phenomena</t>
         </is>
       </c>
       <c r="B23">
-        <v>-1.879819568562167E-05</v>
+        <v>-0.000160958300147833</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -1746,16 +1746,16 @@
         <v>20</v>
       </c>
       <c r="H23">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="I23">
-        <v>0.729</v>
+        <v>3.62E-05</v>
       </c>
       <c r="J23">
-        <v>-9.031990863020038E-05</v>
+        <v>-0.0002224729049016493</v>
       </c>
       <c r="K23">
-        <v>8.794638552965655E-05</v>
+        <v>-9.695908491874215E-05</v>
       </c>
       <c r="L23" t="inlineStr">
         <is>
@@ -1768,22 +1768,22 @@
         </is>
       </c>
       <c r="N23">
-        <v>0.729</v>
+        <v>3.62E-05</v>
       </c>
       <c r="O23" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>****</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pathological Conditions, Signs and Symptoms</t>
+          <t>Musculoskeletal and Neural Physiological Phenomena</t>
         </is>
       </c>
       <c r="B24">
-        <v>0.0001607377009132084</v>
+        <v>-0.0001993532486516879</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -1807,16 +1807,16 @@
         <v>20</v>
       </c>
       <c r="H24">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0.005</v>
+        <v>1.91E-06</v>
       </c>
       <c r="J24">
-        <v>4.244994903573424E-05</v>
+        <v>-0.0002477249302374075</v>
       </c>
       <c r="K24">
-        <v>0.0003003899526723134</v>
+        <v>-0.000141249955454718</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -1829,11 +1829,11 @@
         </is>
       </c>
       <c r="N24">
-        <v>0.005</v>
+        <v>1.91E-06</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>****</t>
         </is>
       </c>
     </row>
@@ -1844,7 +1844,7 @@
         </is>
       </c>
       <c r="B25">
-        <v>0.0001047748661185499</v>
+        <v>3.81936421597026E-05</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -1868,16 +1868,16 @@
         <v>20</v>
       </c>
       <c r="H25">
-        <v>173</v>
+        <v>148</v>
       </c>
       <c r="I25">
-        <v>0.008999999999999999</v>
+        <v>0.114</v>
       </c>
       <c r="J25">
-        <v>2.654146151812454E-05</v>
+        <v>-7.593658962706633E-06</v>
       </c>
       <c r="K25">
-        <v>0.000220122041971151</v>
+        <v>0.0001170682163150293</v>
       </c>
       <c r="L25" t="inlineStr">
         <is>
@@ -1890,22 +1890,22 @@
         </is>
       </c>
       <c r="N25">
-        <v>0.008999999999999999</v>
+        <v>0.114</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Chemical Phenomena</t>
+          <t>Biological Phenomena</t>
         </is>
       </c>
       <c r="B26">
-        <v>-0.0001393198963178278</v>
+        <v>-0.0001366590149185746</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -1929,16 +1929,16 @@
         <v>20</v>
       </c>
       <c r="H26">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="I26">
-        <v>0.000851</v>
+        <v>4.77E-05</v>
       </c>
       <c r="J26">
-        <v>-0.0001839882300625382</v>
+        <v>-0.0001864407470925498</v>
       </c>
       <c r="K26">
-        <v>-5.038619189189444E-05</v>
+        <v>-8.661654841976355E-05</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -1951,22 +1951,22 @@
         </is>
       </c>
       <c r="N26">
-        <v>0.000851</v>
+        <v>4.77E-05</v>
       </c>
       <c r="O26" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>****</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Biological Phenomena</t>
+          <t>Neoplasms</t>
         </is>
       </c>
       <c r="B27">
-        <v>-0.0001746806490536828</v>
+        <v>0.0002193774819593731</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -1990,16 +1990,16 @@
         <v>20</v>
       </c>
       <c r="H27">
-        <v>16</v>
+        <v>202</v>
       </c>
       <c r="I27">
-        <v>0.000322</v>
+        <v>4.77E-05</v>
       </c>
       <c r="J27">
-        <v>-0.0002571012595374363</v>
+        <v>0.0001288377261282829</v>
       </c>
       <c r="K27">
-        <v>-8.828948028496042E-05</v>
+        <v>0.0003252516735665357</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2012,22 +2012,22 @@
         </is>
       </c>
       <c r="N27">
-        <v>0.000322</v>
+        <v>4.77E-05</v>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>****</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Amino Acids, Peptides, and Proteins</t>
+          <t>Chemical Phenomena</t>
         </is>
       </c>
       <c r="B28">
-        <v>-1.059528231456915E-05</v>
+        <v>-0.000121188912875842</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -2051,16 +2051,16 @@
         <v>20</v>
       </c>
       <c r="H28">
-        <v>92</v>
+        <v>8</v>
       </c>
       <c r="I28">
-        <v>0.648</v>
+        <v>4.77E-05</v>
       </c>
       <c r="J28">
-        <v>-8.212927750768698E-05</v>
+        <v>-0.0001438734804743093</v>
       </c>
       <c r="K28">
-        <v>5.500505207333323E-05</v>
+        <v>-7.095163658819194E-05</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2073,22 +2073,22 @@
         </is>
       </c>
       <c r="N28">
-        <v>0.648</v>
+        <v>4.77E-05</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>****</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Chemical Actions and Uses</t>
+          <t>Amino Acids, Peptides, and Proteins</t>
         </is>
       </c>
       <c r="B29">
-        <v>4.649191090119326E-05</v>
+        <v>-2.601451380287316E-05</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -2112,16 +2112,16 @@
         <v>20</v>
       </c>
       <c r="H29">
-        <v>131</v>
+        <v>83</v>
       </c>
       <c r="I29">
-        <v>0.349</v>
+        <v>0.43</v>
       </c>
       <c r="J29">
-        <v>-5.918902514149261E-05</v>
+        <v>-7.822951935705487E-05</v>
       </c>
       <c r="K29">
-        <v>0.0001418008248041511</v>
+        <v>3.296602216940799E-05</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2134,7 +2134,7 @@
         </is>
       </c>
       <c r="N29">
-        <v>0.349</v>
+        <v>0.43</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
@@ -2145,11 +2145,11 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Nervous System</t>
+          <t>Health Occupations</t>
         </is>
       </c>
       <c r="B30">
-        <v>-0.0001908476515751907</v>
+        <v>-0.0001081609160537198</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -2173,16 +2173,16 @@
         <v>20</v>
       </c>
       <c r="H30">
-        <v>3</v>
+        <v>39</v>
       </c>
       <c r="I30">
-        <v>9.54E-06</v>
+        <v>0.012</v>
       </c>
       <c r="J30">
-        <v>-0.0002327214982532254</v>
+        <v>-0.000146168580264987</v>
       </c>
       <c r="K30">
-        <v>-0.0001454808950533815</v>
+        <v>-3.834492128058463E-05</v>
       </c>
       <c r="L30" t="inlineStr">
         <is>
@@ -2195,22 +2195,22 @@
         </is>
       </c>
       <c r="N30">
-        <v>9.54E-06</v>
+        <v>0.012</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>****</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Health Occupations</t>
+          <t>Nervous System Diseases</t>
         </is>
       </c>
       <c r="B31">
-        <v>-8.920290976181034E-05</v>
+        <v>1.685365710977708E-05</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -2234,16 +2234,16 @@
         <v>20</v>
       </c>
       <c r="H31">
-        <v>49</v>
+        <v>112</v>
       </c>
       <c r="I31">
-        <v>0.036</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="J31">
-        <v>-0.0001461243232360743</v>
+        <v>-6.599563358972258E-05</v>
       </c>
       <c r="K31">
-        <v>-9.195154963154595E-06</v>
+        <v>0.0001082274095067263</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -2256,22 +2256,22 @@
         </is>
       </c>
       <c r="N31">
-        <v>0.036</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Nervous System Diseases</t>
+          <t>Chemical Actions and Uses</t>
         </is>
       </c>
       <c r="B32">
-        <v>3.668863156645092E-05</v>
+        <v>3.545918002658133E-05</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -2295,16 +2295,16 @@
         <v>20</v>
       </c>
       <c r="H32">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="I32">
-        <v>0.498</v>
+        <v>0.277</v>
       </c>
       <c r="J32">
-        <v>-7.306380251664556E-05</v>
+        <v>-3.233686468386281E-05</v>
       </c>
       <c r="K32">
-        <v>0.0001963857088696327</v>
+        <v>0.0001071344449841121</v>
       </c>
       <c r="L32" t="inlineStr">
         <is>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="N32">
-        <v>0.498</v>
+        <v>0.277</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -2328,11 +2328,11 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Neoplasms</t>
+          <t>Nervous System</t>
         </is>
       </c>
       <c r="B33">
-        <v>0.0003066592996980707</v>
+        <v>-0.0001320137734682116</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -2356,16 +2356,16 @@
         <v>20</v>
       </c>
       <c r="H33">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="I33">
-        <v>4.77E-05</v>
+        <v>1.91E-06</v>
       </c>
       <c r="J33">
-        <v>0.0001623068898033382</v>
+        <v>-0.0001563772168653861</v>
       </c>
       <c r="K33">
-        <v>0.0004798429594003941</v>
+        <v>-0.0001031334049565064</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -2378,7 +2378,7 @@
         </is>
       </c>
       <c r="N33">
-        <v>4.77E-05</v>
+        <v>1.91E-06</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -2389,11 +2389,11 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Equipment and Supplies</t>
+          <t>Population Characteristics</t>
         </is>
       </c>
       <c r="B34">
-        <v>8.81852097502537E-05</v>
+        <v>-7.67990133066184E-05</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -2417,16 +2417,16 @@
         <v>20</v>
       </c>
       <c r="H34">
-        <v>172</v>
+        <v>39</v>
       </c>
       <c r="I34">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="J34">
-        <v>2.284010856903266E-05</v>
+        <v>-0.0001257654380088347</v>
       </c>
       <c r="K34">
-        <v>0.0001527670481683193</v>
+        <v>-1.369117179748467E-05</v>
       </c>
       <c r="L34" t="inlineStr">
         <is>
@@ -2439,7 +2439,7 @@
         </is>
       </c>
       <c r="N34">
-        <v>0.011</v>
+        <v>0.012</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -2450,11 +2450,11 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Population Characteristics</t>
+          <t>Equipment and Supplies</t>
         </is>
       </c>
       <c r="B35">
-        <v>-6.728279426406122E-05</v>
+        <v>4.11680986969741E-05</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -2478,16 +2478,16 @@
         <v>20</v>
       </c>
       <c r="H35">
-        <v>65</v>
+        <v>155</v>
       </c>
       <c r="I35">
-        <v>0.143</v>
+        <v>0.064</v>
       </c>
       <c r="J35">
-        <v>-0.0001473750798320746</v>
+        <v>-1.825140273851918E-06</v>
       </c>
       <c r="K35">
-        <v>1.644192651149035E-05</v>
+        <v>9.058374299533034E-05</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -2500,7 +2500,7 @@
         </is>
       </c>
       <c r="N35">
-        <v>0.143</v>
+        <v>0.064</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -2515,7 +2515,7 @@
         </is>
       </c>
       <c r="B36">
-        <v>-0.0001362644084083174</v>
+        <v>-0.0001543135640969598</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -2539,16 +2539,16 @@
         <v>20</v>
       </c>
       <c r="H36">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="I36">
-        <v>3.62E-05</v>
+        <v>3.81E-06</v>
       </c>
       <c r="J36">
-        <v>-0.0001978826982209921</v>
+        <v>-0.0001911521975374146</v>
       </c>
       <c r="K36">
-        <v>-8.098851010049883E-05</v>
+        <v>-0.0001149423437845459</v>
       </c>
       <c r="L36" t="inlineStr">
         <is>
@@ -2561,7 +2561,7 @@
         </is>
       </c>
       <c r="N36">
-        <v>3.62E-05</v>
+        <v>3.81E-06</v>
       </c>
       <c r="O36" t="inlineStr">
         <is>
@@ -2572,11 +2572,11 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Behavioral Disciplines and Activities</t>
+          <t>Surgical Procedures, Operative</t>
         </is>
       </c>
       <c r="B37">
-        <v>-0.0001782145813626677</v>
+        <v>8.133491197375399E-05</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -2600,16 +2600,16 @@
         <v>20</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>175</v>
       </c>
       <c r="I37">
-        <v>9.54E-06</v>
+        <v>0.007</v>
       </c>
       <c r="J37">
-        <v>-0.000226558013678735</v>
+        <v>2.01085624792775E-05</v>
       </c>
       <c r="K37">
-        <v>-0.0001251077918235245</v>
+        <v>0.0001399448019209621</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -2622,22 +2622,22 @@
         </is>
       </c>
       <c r="N37">
-        <v>9.54E-06</v>
+        <v>0.007</v>
       </c>
       <c r="O37" t="inlineStr">
         <is>
-          <t>****</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Surgical Procedures, Operative</t>
+          <t>Education</t>
         </is>
       </c>
       <c r="B38">
-        <v>0.0001188425225532642</v>
+        <v>-0.0001345668158023518</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -2661,16 +2661,16 @@
         <v>20</v>
       </c>
       <c r="H38">
-        <v>183</v>
+        <v>1</v>
       </c>
       <c r="I38">
-        <v>0.002</v>
+        <v>3.81E-06</v>
       </c>
       <c r="J38">
-        <v>4.909108205141882E-05</v>
+        <v>-0.0001721957431029302</v>
       </c>
       <c r="K38">
-        <v>0.0001999081548883588</v>
+        <v>-9.948107358221698E-05</v>
       </c>
       <c r="L38" t="inlineStr">
         <is>
@@ -2683,22 +2683,22 @@
         </is>
       </c>
       <c r="N38">
-        <v>0.002</v>
+        <v>3.81E-06</v>
       </c>
       <c r="O38" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>****</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Education</t>
+          <t>Behavioral Disciplines and Activities</t>
         </is>
       </c>
       <c r="B39">
-        <v>-0.0001403211383612523</v>
+        <v>-0.0001361456371545184</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -2722,16 +2722,16 @@
         <v>20</v>
       </c>
       <c r="H39">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="I39">
-        <v>6.29E-05</v>
+        <v>9.54E-06</v>
       </c>
       <c r="J39">
-        <v>-0.0002037901046484729</v>
+        <v>-0.0001684130445662227</v>
       </c>
       <c r="K39">
-        <v>-0.0001020280140935664</v>
+        <v>-9.543764072067358E-05</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -2744,7 +2744,7 @@
         </is>
       </c>
       <c r="N39">
-        <v>6.29E-05</v>
+        <v>9.54E-06</v>
       </c>
       <c r="O39" t="inlineStr">
         <is>
@@ -2759,7 +2759,7 @@
         </is>
       </c>
       <c r="B40">
-        <v>-0.0001271874471270171</v>
+        <v>-9.711019200184587E-05</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -2783,16 +2783,16 @@
         <v>20</v>
       </c>
       <c r="H40">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="I40">
-        <v>0.000483</v>
+        <v>8.2E-05</v>
       </c>
       <c r="J40">
-        <v>-0.0001808432886878448</v>
+        <v>-0.0001330933480009679</v>
       </c>
       <c r="K40">
-        <v>-7.288817738349657E-05</v>
+        <v>-6.548123041237353E-05</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -2805,22 +2805,22 @@
         </is>
       </c>
       <c r="N40">
-        <v>0.000483</v>
+        <v>8.2E-05</v>
       </c>
       <c r="O40" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>****</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Humanities</t>
+          <t>Cardiovascular Diseases</t>
         </is>
       </c>
       <c r="B41">
-        <v>3.777679225407358E-06</v>
+        <v>0.0001018585641386279</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -2844,16 +2844,16 @@
         <v>20</v>
       </c>
       <c r="H41">
-        <v>112</v>
+        <v>182</v>
       </c>
       <c r="I41">
-        <v>0.8120000000000001</v>
+        <v>0.003</v>
       </c>
       <c r="J41">
-        <v>-5.601454759184772E-05</v>
+        <v>4.219941237454083E-05</v>
       </c>
       <c r="K41">
-        <v>7.201164363431212E-05</v>
+        <v>0.0001677096996212865</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -2866,22 +2866,22 @@
         </is>
       </c>
       <c r="N41">
-        <v>0.8120000000000001</v>
+        <v>0.003</v>
       </c>
       <c r="O41" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Mental Disorders</t>
+          <t>Humanities</t>
         </is>
       </c>
       <c r="B42">
-        <v>-7.616031289136648E-05</v>
+        <v>-7.20990740628044E-06</v>
       </c>
       <c r="C42" t="inlineStr">
         <is>
@@ -2905,16 +2905,16 @@
         <v>20</v>
       </c>
       <c r="H42">
-        <v>43</v>
+        <v>97</v>
       </c>
       <c r="I42">
-        <v>0.019</v>
+        <v>0.784</v>
       </c>
       <c r="J42">
-        <v>-0.0001276782227570787</v>
+        <v>-6.080920898229456E-05</v>
       </c>
       <c r="K42">
-        <v>-1.462819474665786E-05</v>
+        <v>4.080275177614324E-05</v>
       </c>
       <c r="L42" t="inlineStr">
         <is>
@@ -2927,22 +2927,22 @@
         </is>
       </c>
       <c r="N42">
-        <v>0.019</v>
+        <v>0.784</v>
       </c>
       <c r="O42" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Cardiovascular Diseases</t>
+          <t>Mental Disorders</t>
         </is>
       </c>
       <c r="B43">
-        <v>0.0001136384615987076</v>
+        <v>-5.743453465886057E-05</v>
       </c>
       <c r="C43" t="inlineStr">
         <is>
@@ -2966,16 +2966,16 @@
         <v>20</v>
       </c>
       <c r="H43">
-        <v>179</v>
+        <v>37</v>
       </c>
       <c r="I43">
-        <v>0.004</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="J43">
-        <v>3.474193803228843E-05</v>
+        <v>-9.994191680013421E-05</v>
       </c>
       <c r="K43">
-        <v>0.0002191404907110276</v>
+        <v>-1.777403367381396E-05</v>
       </c>
       <c r="L43" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="N43">
-        <v>0.004</v>
+        <v>0.008999999999999999</v>
       </c>
       <c r="O43" t="inlineStr">
         <is>
@@ -2999,11 +2999,11 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Body Regions</t>
+          <t>Human Activities</t>
         </is>
       </c>
       <c r="B44">
-        <v>-7.625140725515781E-05</v>
+        <v>-4.964093884085104E-06</v>
       </c>
       <c r="C44" t="inlineStr">
         <is>
@@ -3027,16 +3027,16 @@
         <v>20</v>
       </c>
       <c r="H44">
-        <v>45</v>
+        <v>95</v>
       </c>
       <c r="I44">
-        <v>0.024</v>
+        <v>0.729</v>
       </c>
       <c r="J44">
-        <v>-0.0001190739872211474</v>
+        <v>-3.56643035654E-05</v>
       </c>
       <c r="K44">
-        <v>-1.254197584873166E-05</v>
+        <v>2.34001050821903E-05</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -3049,22 +3049,22 @@
         </is>
       </c>
       <c r="N44">
-        <v>0.024</v>
+        <v>0.729</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Human Activities</t>
+          <t>Body Regions</t>
         </is>
       </c>
       <c r="B45">
-        <v>1.629902138641372E-06</v>
+        <v>-5.670235890762291E-05</v>
       </c>
       <c r="C45" t="inlineStr">
         <is>
@@ -3088,16 +3088,16 @@
         <v>20</v>
       </c>
       <c r="H45">
-        <v>106</v>
+        <v>46</v>
       </c>
       <c r="I45">
-        <v>0.985</v>
+        <v>0.027</v>
       </c>
       <c r="J45">
-        <v>-3.914748139463255E-05</v>
+        <v>-8.686668453611508E-05</v>
       </c>
       <c r="K45">
-        <v>4.874967717677142E-05</v>
+        <v>-7.104553855497589E-06</v>
       </c>
       <c r="L45" t="inlineStr">
         <is>
@@ -3110,22 +3110,22 @@
         </is>
       </c>
       <c r="N45">
-        <v>0.985</v>
+        <v>0.027</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Musculoskeletal System</t>
+          <t>Infections</t>
         </is>
       </c>
       <c r="B46">
-        <v>-3.91425586988073E-05</v>
+        <v>-6.663425144973304E-06</v>
       </c>
       <c r="C46" t="inlineStr">
         <is>
@@ -3149,16 +3149,16 @@
         <v>20</v>
       </c>
       <c r="H46">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="I46">
-        <v>0.083</v>
+        <v>0.211</v>
       </c>
       <c r="J46">
-        <v>-8.75524718995397E-05</v>
+        <v>-6.002822706079266E-05</v>
       </c>
       <c r="K46">
-        <v>6.560680001824006E-06</v>
+        <v>4.670137677084607E-05</v>
       </c>
       <c r="L46" t="inlineStr">
         <is>
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="N46">
-        <v>0.083</v>
+        <v>0.211</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -3182,11 +3182,11 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Cell Physiological Phenomena</t>
+          <t>Musculoskeletal System</t>
         </is>
       </c>
       <c r="B47">
-        <v>-0.0001045073506633294</v>
+        <v>-1.673462911063147E-05</v>
       </c>
       <c r="C47" t="inlineStr">
         <is>
@@ -3210,16 +3210,16 @@
         <v>20</v>
       </c>
       <c r="H47">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="I47">
-        <v>3.81E-06</v>
+        <v>0.261</v>
       </c>
       <c r="J47">
-        <v>-0.0001388200712543959</v>
+        <v>-4.856267417989227E-05</v>
       </c>
       <c r="K47">
-        <v>-7.082493106608823E-05</v>
+        <v>1.034812006172565E-05</v>
       </c>
       <c r="L47" t="inlineStr">
         <is>
@@ -3232,22 +3232,22 @@
         </is>
       </c>
       <c r="N47">
-        <v>3.81E-06</v>
+        <v>0.261</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>****</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Organic Chemicals</t>
+          <t>Respiratory Tract Diseases</t>
         </is>
       </c>
       <c r="B48">
-        <v>4.939638715668098E-05</v>
+        <v>2.800164382681806E-05</v>
       </c>
       <c r="C48" t="inlineStr">
         <is>
@@ -3271,16 +3271,16 @@
         <v>20</v>
       </c>
       <c r="H48">
-        <v>134</v>
+        <v>157</v>
       </c>
       <c r="I48">
-        <v>0.287</v>
+        <v>0.053</v>
       </c>
       <c r="J48">
-        <v>4.205004866791179E-06</v>
+        <v>-2.374870812815765E-07</v>
       </c>
       <c r="K48">
-        <v>9.458776944657074E-05</v>
+        <v>6.602799713218548E-05</v>
       </c>
       <c r="L48" t="inlineStr">
         <is>
@@ -3293,7 +3293,7 @@
         </is>
       </c>
       <c r="N48">
-        <v>0.287</v>
+        <v>0.053</v>
       </c>
       <c r="O48" t="inlineStr">
         <is>
@@ -3308,7 +3308,7 @@
         </is>
       </c>
       <c r="B49">
-        <v>-6.587779319886947E-06</v>
+        <v>-2.675318610942419E-06</v>
       </c>
       <c r="C49" t="inlineStr">
         <is>
@@ -3332,16 +3332,16 @@
         <v>20</v>
       </c>
       <c r="H49">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="I49">
-        <v>0.701</v>
+        <v>0.898</v>
       </c>
       <c r="J49">
-        <v>-4.88629481628004E-05</v>
+        <v>-2.792204484245835E-05</v>
       </c>
       <c r="K49">
-        <v>4.540613808841122E-05</v>
+        <v>2.852943699402504E-05</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -3354,7 +3354,7 @@
         </is>
       </c>
       <c r="N49">
-        <v>0.701</v>
+        <v>0.898</v>
       </c>
       <c r="O49" t="inlineStr">
         <is>
@@ -3365,11 +3365,11 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Metabolism</t>
+          <t>Organic Chemicals</t>
         </is>
       </c>
       <c r="B50">
-        <v>-1.176394499810042E-05</v>
+        <v>4.290036241733492E-06</v>
       </c>
       <c r="C50" t="inlineStr">
         <is>
@@ -3393,16 +3393,16 @@
         <v>20</v>
       </c>
       <c r="H50">
-        <v>90</v>
+        <v>113</v>
       </c>
       <c r="I50">
-        <v>0.596</v>
+        <v>0.784</v>
       </c>
       <c r="J50">
-        <v>-5.793498674827549E-05</v>
+        <v>-1.997261175411249E-05</v>
       </c>
       <c r="K50">
-        <v>3.47320926406379E-05</v>
+        <v>3.515548395079801E-05</v>
       </c>
       <c r="L50" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         </is>
       </c>
       <c r="N50">
-        <v>0.596</v>
+        <v>0.784</v>
       </c>
       <c r="O50" t="inlineStr">
         <is>
@@ -3430,7 +3430,7 @@
         </is>
       </c>
       <c r="B51">
-        <v>4.039903394891305E-05</v>
+        <v>3.106555660214576E-05</v>
       </c>
       <c r="C51" t="inlineStr">
         <is>
@@ -3460,10 +3460,10 @@
         <v>0.033</v>
       </c>
       <c r="J51">
-        <v>5.283669028089002E-06</v>
+        <v>4.834752134959886E-06</v>
       </c>
       <c r="K51">
-        <v>0.0001185027585772252</v>
+        <v>6.936603422220711E-05</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -3487,11 +3487,11 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Circulatory and Respiratory Physiological Phenomena</t>
+          <t>Metabolism</t>
         </is>
       </c>
       <c r="B52">
-        <v>2.446429205356861E-05</v>
+        <v>-1.889833632559838E-05</v>
       </c>
       <c r="C52" t="inlineStr">
         <is>
@@ -3515,16 +3515,16 @@
         <v>20</v>
       </c>
       <c r="H52">
-        <v>130</v>
+        <v>69</v>
       </c>
       <c r="I52">
-        <v>0.368</v>
+        <v>0.189</v>
       </c>
       <c r="J52">
-        <v>-2.290087079959228E-05</v>
+        <v>-4.88431230121212E-05</v>
       </c>
       <c r="K52">
-        <v>7.423082430156841E-05</v>
+        <v>9.365808194136407E-06</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -3537,7 +3537,7 @@
         </is>
       </c>
       <c r="N52">
-        <v>0.368</v>
+        <v>0.189</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
@@ -3548,11 +3548,11 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Urogenital Diseases</t>
+          <t>Cell Physiological Phenomena</t>
         </is>
       </c>
       <c r="B53">
-        <v>7.868067192633988E-05</v>
+        <v>-6.819067893385961E-05</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
@@ -3576,16 +3576,16 @@
         <v>20</v>
       </c>
       <c r="H53">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="I53">
-        <v>0.033</v>
+        <v>5.72E-06</v>
       </c>
       <c r="J53">
-        <v>6.710050757238251E-06</v>
+        <v>-9.584845671532049E-05</v>
       </c>
       <c r="K53">
-        <v>0.0001496992780102697</v>
+        <v>-5.05040506715163E-05</v>
       </c>
       <c r="L53" t="inlineStr">
         <is>
@@ -3598,22 +3598,22 @@
         </is>
       </c>
       <c r="N53">
-        <v>0.033</v>
+        <v>5.72E-06</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>****</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Nucleic Acids, Nucleotides, and Nucleosides</t>
+          <t>Urogenital Diseases</t>
         </is>
       </c>
       <c r="B54">
-        <v>-2.132019561920349E-05</v>
+        <v>6.452245024684354E-05</v>
       </c>
       <c r="C54" t="inlineStr">
         <is>
@@ -3637,16 +3637,16 @@
         <v>20</v>
       </c>
       <c r="H54">
-        <v>73</v>
+        <v>177</v>
       </c>
       <c r="I54">
-        <v>0.245</v>
+        <v>0.006</v>
       </c>
       <c r="J54">
-        <v>-8.054696142868978E-05</v>
+        <v>2.016565517487078E-05</v>
       </c>
       <c r="K54">
-        <v>2.613442069914027E-05</v>
+        <v>0.0001096614482933243</v>
       </c>
       <c r="L54" t="inlineStr">
         <is>
@@ -3659,22 +3659,22 @@
         </is>
       </c>
       <c r="N54">
-        <v>0.245</v>
+        <v>0.006</v>
       </c>
       <c r="O54" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Tissues</t>
+          <t>Circulatory and Respiratory Physiological Phenomena</t>
         </is>
       </c>
       <c r="B55">
-        <v>-1.558349162904648E-05</v>
+        <v>2.146226132672778E-05</v>
       </c>
       <c r="C55" t="inlineStr">
         <is>
@@ -3698,16 +3698,16 @@
         <v>20</v>
       </c>
       <c r="H55">
-        <v>82</v>
+        <v>141</v>
       </c>
       <c r="I55">
-        <v>0.409</v>
+        <v>0.189</v>
       </c>
       <c r="J55">
-        <v>-5.252820134250697E-05</v>
+        <v>-7.565397073414825E-06</v>
       </c>
       <c r="K55">
-        <v>2.836016496083022E-05</v>
+        <v>5.890372876929495E-05</v>
       </c>
       <c r="L55" t="inlineStr">
         <is>
@@ -3720,7 +3720,7 @@
         </is>
       </c>
       <c r="N55">
-        <v>0.409</v>
+        <v>0.189</v>
       </c>
       <c r="O55" t="inlineStr">
         <is>
@@ -3731,11 +3731,11 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Cardiovascular System</t>
+          <t>Tissues</t>
         </is>
       </c>
       <c r="B56">
-        <v>5.320608839597657E-05</v>
+        <v>-7.269791883247211E-06</v>
       </c>
       <c r="C56" t="inlineStr">
         <is>
@@ -3759,16 +3759,16 @@
         <v>20</v>
       </c>
       <c r="H56">
-        <v>144</v>
+        <v>98</v>
       </c>
       <c r="I56">
-        <v>0.154</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="J56">
-        <v>-1.384195940298453E-05</v>
+        <v>-3.173152335888166E-05</v>
       </c>
       <c r="K56">
-        <v>0.0001095702453555138</v>
+        <v>2.954206157749163E-05</v>
       </c>
       <c r="L56" t="inlineStr">
         <is>
@@ -3781,7 +3781,7 @@
         </is>
       </c>
       <c r="N56">
-        <v>0.154</v>
+        <v>0.8120000000000001</v>
       </c>
       <c r="O56" t="inlineStr">
         <is>
@@ -3792,11 +3792,11 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Reproductive and Urinary Physiological Phenomena</t>
+          <t>Skin and Connective Tissue Diseases</t>
         </is>
       </c>
       <c r="B57">
-        <v>-2.593746388408184E-05</v>
+        <v>0.0001005073726140463</v>
       </c>
       <c r="C57" t="inlineStr">
         <is>
@@ -3820,16 +3820,16 @@
         <v>20</v>
       </c>
       <c r="H57">
-        <v>70</v>
+        <v>200</v>
       </c>
       <c r="I57">
-        <v>0.202</v>
+        <v>8.2E-05</v>
       </c>
       <c r="J57">
-        <v>-6.176273787226368E-05</v>
+        <v>6.405984066084556E-05</v>
       </c>
       <c r="K57">
-        <v>2.390211284301666E-05</v>
+        <v>0.0001562221205498378</v>
       </c>
       <c r="L57" t="inlineStr">
         <is>
@@ -3842,22 +3842,22 @@
         </is>
       </c>
       <c r="N57">
-        <v>0.202</v>
+        <v>8.2E-05</v>
       </c>
       <c r="O57" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>****</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Infections</t>
+          <t>Nucleic Acids, Nucleotides, and Nucleosides</t>
         </is>
       </c>
       <c r="B58">
-        <v>-2.068497192955283E-05</v>
+        <v>-2.210777262128277E-05</v>
       </c>
       <c r="C58" t="inlineStr">
         <is>
@@ -3881,16 +3881,16 @@
         <v>20</v>
       </c>
       <c r="H58">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="I58">
-        <v>0.189</v>
+        <v>0.143</v>
       </c>
       <c r="J58">
-        <v>-5.922512491087787E-05</v>
+        <v>-6.122355771310297E-05</v>
       </c>
       <c r="K58">
-        <v>1.483335605475842E-05</v>
+        <v>9.005019422759793E-06</v>
       </c>
       <c r="L58" t="inlineStr">
         <is>
@@ -3903,7 +3903,7 @@
         </is>
       </c>
       <c r="N58">
-        <v>0.189</v>
+        <v>0.143</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -3914,11 +3914,11 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Ocular Physiological Phenomena</t>
+          <t>Reproductive and Urinary Physiological Phenomena</t>
         </is>
       </c>
       <c r="B59">
-        <v>-5.698625346032055E-05</v>
+        <v>-1.74445830316075E-05</v>
       </c>
       <c r="C59" t="inlineStr">
         <is>
@@ -3942,16 +3942,16 @@
         <v>20</v>
       </c>
       <c r="H59">
-        <v>20</v>
+        <v>64</v>
       </c>
       <c r="I59">
-        <v>0.000708</v>
+        <v>0.133</v>
       </c>
       <c r="J59">
-        <v>-8.660373861158476E-05</v>
+        <v>-4.436562691237646E-05</v>
       </c>
       <c r="K59">
-        <v>-2.73720501062732E-05</v>
+        <v>9.289000991150208E-06</v>
       </c>
       <c r="L59" t="inlineStr">
         <is>
@@ -3964,22 +3964,22 @@
         </is>
       </c>
       <c r="N59">
-        <v>0.000708</v>
+        <v>0.133</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Skin and Connective Tissue Diseases</t>
+          <t>Digestive System Diseases</t>
         </is>
       </c>
       <c r="B60">
-        <v>0.0001449227935983266</v>
+        <v>5.219910824145503E-05</v>
       </c>
       <c r="C60" t="inlineStr">
         <is>
@@ -4003,16 +4003,16 @@
         <v>20</v>
       </c>
       <c r="H60">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="I60">
-        <v>2.67E-05</v>
+        <v>4.77E-05</v>
       </c>
       <c r="J60">
-        <v>0.0001003291452313234</v>
+        <v>2.905090564369702E-05</v>
       </c>
       <c r="K60">
-        <v>0.0001952449414624447</v>
+        <v>9.604150013607878E-05</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -4025,7 +4025,7 @@
         </is>
       </c>
       <c r="N60">
-        <v>2.67E-05</v>
+        <v>4.77E-05</v>
       </c>
       <c r="O60" t="inlineStr">
         <is>
@@ -4036,11 +4036,11 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Enzymes and Coenzymes</t>
+          <t>Cardiovascular System</t>
         </is>
       </c>
       <c r="B61">
-        <v>-3.91606085834999E-05</v>
+        <v>3.626007209518947E-05</v>
       </c>
       <c r="C61" t="inlineStr">
         <is>
@@ -4064,16 +4064,16 @@
         <v>20</v>
       </c>
       <c r="H61">
-        <v>32</v>
+        <v>154</v>
       </c>
       <c r="I61">
-        <v>0.005</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="J61">
-        <v>-6.686421817277001E-05</v>
+        <v>-4.12377280069109E-06</v>
       </c>
       <c r="K61">
-        <v>-1.288338072337906E-05</v>
+        <v>7.237006252056803E-05</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -4086,22 +4086,22 @@
         </is>
       </c>
       <c r="N61">
-        <v>0.005</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Respiratory Tract Diseases</t>
+          <t>Nutritional and Metabolic Diseases</t>
         </is>
       </c>
       <c r="B62">
-        <v>3.4256085098052E-05</v>
+        <v>7.050725960001096E-05</v>
       </c>
       <c r="C62" t="inlineStr">
         <is>
@@ -4125,16 +4125,16 @@
         <v>20</v>
       </c>
       <c r="H62">
-        <v>146</v>
+        <v>196</v>
       </c>
       <c r="I62">
-        <v>0.133</v>
+        <v>0.00021</v>
       </c>
       <c r="J62">
-        <v>-7.47659531761054E-06</v>
+        <v>3.352840174344176E-05</v>
       </c>
       <c r="K62">
-        <v>7.390254661578833E-05</v>
+        <v>0.0001209024239845829</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -4147,22 +4147,22 @@
         </is>
       </c>
       <c r="N62">
-        <v>0.133</v>
+        <v>0.00021</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>***</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Digestive System Diseases</t>
+          <t>Immune System Diseases</t>
         </is>
       </c>
       <c r="B63">
-        <v>6.90448132317044E-05</v>
+        <v>5.436281545642194E-05</v>
       </c>
       <c r="C63" t="inlineStr">
         <is>
@@ -4186,16 +4186,16 @@
         <v>20</v>
       </c>
       <c r="H63">
-        <v>188</v>
+        <v>172</v>
       </c>
       <c r="I63">
-        <v>0.001</v>
+        <v>0.011</v>
       </c>
       <c r="J63">
-        <v>2.59752045520755E-05</v>
+        <v>1.405754413160831E-05</v>
       </c>
       <c r="K63">
-        <v>0.0001326598684771224</v>
+        <v>9.65326560698734E-05</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -4208,22 +4208,22 @@
         </is>
       </c>
       <c r="N63">
-        <v>0.001</v>
+        <v>0.011</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Nutritional and Metabolic Diseases</t>
+          <t>Ocular Physiological Phenomena</t>
         </is>
       </c>
       <c r="B64">
-        <v>0.0001176902688558171</v>
+        <v>-4.392449820185216E-05</v>
       </c>
       <c r="C64" t="inlineStr">
         <is>
@@ -4247,16 +4247,16 @@
         <v>20</v>
       </c>
       <c r="H64">
-        <v>195</v>
+        <v>10</v>
       </c>
       <c r="I64">
-        <v>0.000261</v>
+        <v>8.2E-05</v>
       </c>
       <c r="J64">
-        <v>6.067447922054502E-05</v>
+        <v>-6.29577598393228E-05</v>
       </c>
       <c r="K64">
-        <v>0.0002079723878359758</v>
+        <v>-2.600391559438874E-05</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -4269,22 +4269,22 @@
         </is>
       </c>
       <c r="N64">
-        <v>0.000261</v>
+        <v>8.2E-05</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>****</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Immune System Diseases</t>
+          <t>Enzymes and Coenzymes</t>
         </is>
       </c>
       <c r="B65">
-        <v>7.660758021728102E-05</v>
+        <v>-2.946069622505117E-05</v>
       </c>
       <c r="C65" t="inlineStr">
         <is>
@@ -4308,16 +4308,16 @@
         <v>20</v>
       </c>
       <c r="H65">
-        <v>172</v>
+        <v>36</v>
       </c>
       <c r="I65">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="J65">
-        <v>2.867859725495978E-05</v>
+        <v>-4.964504049402212E-05</v>
       </c>
       <c r="K65">
-        <v>0.0001355257591242883</v>
+        <v>-8.213700149343326E-06</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -4330,11 +4330,11 @@
         </is>
       </c>
       <c r="N65">
-        <v>0.011</v>
+        <v>0.008</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
     </row>
@@ -4345,7 +4345,7 @@
         </is>
       </c>
       <c r="B66">
-        <v>2.692557873863888E-05</v>
+        <v>3.956323831987948E-05</v>
       </c>
       <c r="C66" t="inlineStr">
         <is>
@@ -4369,16 +4369,16 @@
         <v>20</v>
       </c>
       <c r="H66">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="I66">
-        <v>0.143</v>
+        <v>0.255</v>
       </c>
       <c r="J66">
-        <v>-8.902977046759793E-06</v>
+        <v>5.764740250041556E-06</v>
       </c>
       <c r="K66">
-        <v>8.345551543967459E-05</v>
+        <v>7.336173638971738E-05</v>
       </c>
       <c r="L66" t="inlineStr">
         <is>
@@ -4391,7 +4391,7 @@
         </is>
       </c>
       <c r="N66">
-        <v>0.143</v>
+        <v>0.255</v>
       </c>
       <c r="O66" t="inlineStr">
         <is>
@@ -4402,11 +4402,11 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Bacteria</t>
+          <t>Endocrine System Diseases</t>
         </is>
       </c>
       <c r="B67">
-        <v>1.686537631655884E-06</v>
+        <v>6.561990110748443E-05</v>
       </c>
       <c r="C67" t="inlineStr">
         <is>
@@ -4430,16 +4430,16 @@
         <v>20</v>
       </c>
       <c r="H67">
-        <v>106</v>
+        <v>192</v>
       </c>
       <c r="I67">
-        <v>0.985</v>
+        <v>0.001</v>
       </c>
       <c r="J67">
-        <v>-4.043105596280124E-05</v>
+        <v>1.40517148662096E-05</v>
       </c>
       <c r="K67">
-        <v>4.491536245834955E-05</v>
+        <v>0.0001145358751457217</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -4452,22 +4452,22 @@
         </is>
       </c>
       <c r="N67">
-        <v>0.985</v>
+        <v>0.001</v>
       </c>
       <c r="O67" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Heterocyclic Compounds</t>
+          <t>Eye Diseases</t>
         </is>
       </c>
       <c r="B68">
-        <v>2.079411617803679E-05</v>
+        <v>-9.897875052292836E-06</v>
       </c>
       <c r="C68" t="inlineStr">
         <is>
@@ -4491,16 +4491,16 @@
         <v>20</v>
       </c>
       <c r="H68">
-        <v>141</v>
+        <v>32</v>
       </c>
       <c r="I68">
-        <v>0.189</v>
+        <v>0.007</v>
       </c>
       <c r="J68">
-        <v>-1.256823022646637E-05</v>
+        <v>-3.784193093138132E-05</v>
       </c>
       <c r="K68">
-        <v>5.558612610890603E-05</v>
+        <v>1.804618082679567E-05</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -4513,11 +4513,11 @@
         </is>
       </c>
       <c r="N68">
-        <v>0.189</v>
+        <v>0.007</v>
       </c>
       <c r="O68" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>**</t>
         </is>
       </c>
     </row>
@@ -4528,7 +4528,7 @@
         </is>
       </c>
       <c r="B69">
-        <v>-3.572517917306815E-06</v>
+        <v>-8.006525783939124E-06</v>
       </c>
       <c r="C69" t="inlineStr">
         <is>
@@ -4552,16 +4552,16 @@
         <v>20</v>
       </c>
       <c r="H69">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I69">
-        <v>0.784</v>
+        <v>0.723</v>
       </c>
       <c r="J69">
-        <v>-3.804609555404652E-05</v>
+        <v>-3.949932585461493E-05</v>
       </c>
       <c r="K69">
-        <v>3.950201345814735E-05</v>
+        <v>2.348627428673669E-05</v>
       </c>
       <c r="L69" t="inlineStr">
         <is>
@@ -4574,7 +4574,7 @@
         </is>
       </c>
       <c r="N69">
-        <v>0.784</v>
+        <v>0.723</v>
       </c>
       <c r="O69" t="inlineStr">
         <is>
@@ -4585,11 +4585,11 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Sense Organs</t>
+          <t>Viruses</t>
         </is>
       </c>
       <c r="B70">
-        <v>-9.401713484174712E-05</v>
+        <v>3.982397264471548E-05</v>
       </c>
       <c r="C70" t="inlineStr">
         <is>
@@ -4613,16 +4613,16 @@
         <v>20</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>71</v>
       </c>
       <c r="I70">
-        <v>1.91E-06</v>
+        <v>0.211</v>
       </c>
       <c r="J70">
-        <v>-0.0001092222768864327</v>
+        <v>-4.889315023539151E-05</v>
       </c>
       <c r="K70">
-        <v>-7.674218288521948E-05</v>
+        <v>3.982397264471548E-05</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -4635,22 +4635,22 @@
         </is>
       </c>
       <c r="N70">
-        <v>1.91E-06</v>
+        <v>0.211</v>
       </c>
       <c r="O70" t="inlineStr">
         <is>
-          <t>****</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Wounds and Injuries</t>
+          <t>Heterocyclic Compounds</t>
         </is>
       </c>
       <c r="B71">
-        <v>-1.567294509422939E-05</v>
+        <v>2.325002341237938E-05</v>
       </c>
       <c r="C71" t="inlineStr">
         <is>
@@ -4674,16 +4674,16 @@
         <v>20</v>
       </c>
       <c r="H71">
-        <v>74</v>
+        <v>147</v>
       </c>
       <c r="I71">
-        <v>0.261</v>
+        <v>0.123</v>
       </c>
       <c r="J71">
-        <v>-5.047151861953231E-05</v>
+        <v>-4.898910302876107E-06</v>
       </c>
       <c r="K71">
-        <v>1.816048615703439E-05</v>
+        <v>5.375468235006729E-05</v>
       </c>
       <c r="L71" t="inlineStr">
         <is>
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="N71">
-        <v>0.261</v>
+        <v>0.123</v>
       </c>
       <c r="O71" t="inlineStr">
         <is>
@@ -4707,11 +4707,11 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Eye Diseases</t>
+          <t>Wounds and Injuries</t>
         </is>
       </c>
       <c r="B72">
-        <v>-3.629471793633404E-05</v>
+        <v>-1.460932549715767E-05</v>
       </c>
       <c r="C72" t="inlineStr">
         <is>
@@ -4735,16 +4735,16 @@
         <v>20</v>
       </c>
       <c r="H72">
-        <v>37</v>
+        <v>73</v>
       </c>
       <c r="I72">
-        <v>0.008999999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="J72">
-        <v>-5.651845041077677E-05</v>
+        <v>-3.630907390516702E-05</v>
       </c>
       <c r="K72">
-        <v>-9.383907285170944E-06</v>
+        <v>8.671010631099078E-06</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -4757,22 +4757,22 @@
         </is>
       </c>
       <c r="N72">
-        <v>0.008999999999999999</v>
+        <v>0.245</v>
       </c>
       <c r="O72" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Endocrine System Diseases</t>
+          <t>Sense Organs</t>
         </is>
       </c>
       <c r="B73">
-        <v>0.000100647577525453</v>
+        <v>-3.313804121097575E-05</v>
       </c>
       <c r="C73" t="inlineStr">
         <is>
@@ -4796,16 +4796,16 @@
         <v>20</v>
       </c>
       <c r="H73">
-        <v>203</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>3.62E-05</v>
+        <v>3.81E-06</v>
       </c>
       <c r="J73">
-        <v>4.793718745536335E-05</v>
+        <v>-4.273147923269726E-05</v>
       </c>
       <c r="K73">
-        <v>0.000151918458677526</v>
+        <v>-2.431974069143924E-05</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -4818,7 +4818,7 @@
         </is>
       </c>
       <c r="N73">
-        <v>3.62E-05</v>
+        <v>3.81E-06</v>
       </c>
       <c r="O73" t="inlineStr">
         <is>
@@ -4833,7 +4833,7 @@
         </is>
       </c>
       <c r="B74">
-        <v>-3.096510374720925E-06</v>
+        <v>-1.043905820935775E-05</v>
       </c>
       <c r="C74" t="inlineStr">
         <is>
@@ -4857,16 +4857,16 @@
         <v>20</v>
       </c>
       <c r="H74">
-        <v>94</v>
+        <v>65</v>
       </c>
       <c r="I74">
-        <v>0.701</v>
+        <v>0.143</v>
       </c>
       <c r="J74">
-        <v>-2.467193920060578E-05</v>
+        <v>-2.600391559438875E-05</v>
       </c>
       <c r="K74">
-        <v>1.8322984101316E-05</v>
+        <v>4.734697688419257E-06</v>
       </c>
       <c r="L74" t="inlineStr">
         <is>
@@ -4879,7 +4879,7 @@
         </is>
       </c>
       <c r="N74">
-        <v>0.701</v>
+        <v>0.143</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -4890,11 +4890,11 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Pharmaceutical Preparations</t>
+          <t>Bacteria</t>
         </is>
       </c>
       <c r="B75">
-        <v>5.02679492279922E-06</v>
+        <v>-1.712721250746137E-06</v>
       </c>
       <c r="C75" t="inlineStr">
         <is>
@@ -4918,16 +4918,16 @@
         <v>20</v>
       </c>
       <c r="H75">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="I75">
-        <v>0.729</v>
+        <v>0.985</v>
       </c>
       <c r="J75">
-        <v>-2.164355060915829E-05</v>
+        <v>-2.967949421223259E-05</v>
       </c>
       <c r="K75">
-        <v>3.535583004002963E-05</v>
+        <v>2.622727173102441E-05</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -4940,7 +4940,7 @@
         </is>
       </c>
       <c r="N75">
-        <v>0.729</v>
+        <v>0.985</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -4955,7 +4955,7 @@
         </is>
       </c>
       <c r="B76">
-        <v>5.743267584590691E-06</v>
+        <v>4.139954571922545E-06</v>
       </c>
       <c r="C76" t="inlineStr">
         <is>
@@ -4985,10 +4985,10 @@
         <v>0.571</v>
       </c>
       <c r="J76">
-        <v>-1.830329331801495E-05</v>
+        <v>-1.528087581664058E-05</v>
       </c>
       <c r="K76">
-        <v>3.822500248441234E-05</v>
+        <v>2.814540097909401E-05</v>
       </c>
       <c r="L76" t="inlineStr">
         <is>
@@ -5012,11 +5012,11 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Food and Beverages</t>
+          <t>Non-Medical Public and Private Facilities</t>
         </is>
       </c>
       <c r="B77">
-        <v>1.999311274688767E-05</v>
+        <v>-1.464596273057003E-05</v>
       </c>
       <c r="C77" t="inlineStr">
         <is>
@@ -5040,16 +5040,16 @@
         <v>20</v>
       </c>
       <c r="H77">
-        <v>133</v>
+        <v>42</v>
       </c>
       <c r="I77">
-        <v>0.312</v>
+        <v>0.017</v>
       </c>
       <c r="J77">
-        <v>-1.496303602687161E-05</v>
+        <v>-2.719340182738216E-05</v>
       </c>
       <c r="K77">
-        <v>6.593845746533295E-05</v>
+        <v>-2.462845141296E-06</v>
       </c>
       <c r="L77" t="inlineStr">
         <is>
@@ -5062,22 +5062,22 @@
         </is>
       </c>
       <c r="N77">
-        <v>0.312</v>
+        <v>0.017</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>ns</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Non-Medical Public and Private Facilities</t>
+          <t>Food and Beverages</t>
         </is>
       </c>
       <c r="B78">
-        <v>-1.026451878985245E-05</v>
+        <v>1.578012263605092E-05</v>
       </c>
       <c r="C78" t="inlineStr">
         <is>
@@ -5101,16 +5101,16 @@
         <v>20</v>
       </c>
       <c r="H78">
-        <v>72</v>
+        <v>133</v>
       </c>
       <c r="I78">
-        <v>0.231</v>
+        <v>0.312</v>
       </c>
       <c r="J78">
-        <v>-2.467522099782262E-05</v>
+        <v>-1.175891160476916E-05</v>
       </c>
       <c r="K78">
-        <v>7.967370947672217E-06</v>
+        <v>4.880927756008237E-05</v>
       </c>
       <c r="L78" t="inlineStr">
         <is>
@@ -5123,7 +5123,7 @@
         </is>
       </c>
       <c r="N78">
-        <v>0.231</v>
+        <v>0.312</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -5134,11 +5134,11 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Macromolecular Substances</t>
+          <t>Pharmaceutical Preparations</t>
         </is>
       </c>
       <c r="B79">
-        <v>1.824009423056677E-05</v>
+        <v>-5.156111891550619E-06</v>
       </c>
       <c r="C79" t="inlineStr">
         <is>
@@ -5162,16 +5162,16 @@
         <v>20</v>
       </c>
       <c r="H79">
-        <v>143</v>
+        <v>95</v>
       </c>
       <c r="I79">
-        <v>0.165</v>
+        <v>0.729</v>
       </c>
       <c r="J79">
-        <v>-1.25715120236832E-05</v>
+        <v>-2.191045550957503E-05</v>
       </c>
       <c r="K79">
-        <v>5.749343807646644E-05</v>
+        <v>1.649360929318842E-05</v>
       </c>
       <c r="L79" t="inlineStr">
         <is>
@@ -5184,7 +5184,7 @@
         </is>
       </c>
       <c r="N79">
-        <v>0.165</v>
+        <v>0.729</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -5199,7 +5199,7 @@
         </is>
       </c>
       <c r="B80">
-        <v>-4.929136964574209E-06</v>
+        <v>1.13642773813537E-05</v>
       </c>
       <c r="C80" t="inlineStr">
         <is>
@@ -5223,16 +5223,16 @@
         <v>20</v>
       </c>
       <c r="H80">
-        <v>94</v>
+        <v>128</v>
       </c>
       <c r="I80">
-        <v>0.701</v>
+        <v>0.409</v>
       </c>
       <c r="J80">
-        <v>-3.18399476157373E-05</v>
+        <v>-1.582559170986698E-05</v>
       </c>
       <c r="K80">
-        <v>2.914640030450357E-05</v>
+        <v>3.640559561554616E-05</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -5245,7 +5245,7 @@
         </is>
       </c>
       <c r="N80">
-        <v>0.701</v>
+        <v>0.409</v>
       </c>
       <c r="O80" t="inlineStr">
         <is>
@@ -5256,11 +5256,11 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Otorhinolaryngologic Diseases</t>
+          <t>Macromolecular Substances</t>
         </is>
       </c>
       <c r="B81">
-        <v>-1.312712763980148E-05</v>
+        <v>5.90093667785826E-06</v>
       </c>
       <c r="C81" t="inlineStr">
         <is>
@@ -5284,16 +5284,16 @@
         <v>20</v>
       </c>
       <c r="H81">
-        <v>77</v>
+        <v>127</v>
       </c>
       <c r="I81">
-        <v>0.312</v>
+        <v>0.43</v>
       </c>
       <c r="J81">
-        <v>-3.48617726127511E-05</v>
+        <v>-1.882962000822791E-05</v>
       </c>
       <c r="K81">
-        <v>1.004046265673108E-05</v>
+        <v>3.052790618124232E-05</v>
       </c>
       <c r="L81" t="inlineStr">
         <is>
@@ -5306,7 +5306,7 @@
         </is>
       </c>
       <c r="N81">
-        <v>0.312</v>
+        <v>0.43</v>
       </c>
       <c r="O81" t="inlineStr">
         <is>
@@ -5317,11 +5317,11 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Dentistry</t>
+          <t>Otorhinolaryngologic Diseases</t>
         </is>
       </c>
       <c r="B82">
-        <v>6.760366341507939E-05</v>
+        <v>-1.491832067718324E-05</v>
       </c>
       <c r="C82" t="inlineStr">
         <is>
@@ -5345,16 +5345,16 @@
         <v>20</v>
       </c>
       <c r="H82">
-        <v>187</v>
+        <v>54</v>
       </c>
       <c r="I82">
-        <v>0.001</v>
+        <v>0.058</v>
       </c>
       <c r="J82">
-        <v>3.440709675207467E-05</v>
+        <v>-3.133688913546619E-05</v>
       </c>
       <c r="K82">
-        <v>0.0001074938718492381</v>
+        <v>8.251647254553285E-07</v>
       </c>
       <c r="L82" t="inlineStr">
         <is>
@@ -5367,22 +5367,22 @@
         </is>
       </c>
       <c r="N82">
-        <v>0.001</v>
+        <v>0.058</v>
       </c>
       <c r="O82" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Chemically-Induced Disorders</t>
+          <t>Dentistry</t>
         </is>
       </c>
       <c r="B83">
-        <v>-1.655847929473616E-05</v>
+        <v>4.671252029440519E-05</v>
       </c>
       <c r="C83" t="inlineStr">
         <is>
@@ -5406,16 +5406,16 @@
         <v>20</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="I83">
-        <v>9.54E-05</v>
+        <v>0.002</v>
       </c>
       <c r="J83">
-        <v>-8.565828712084664E-05</v>
+        <v>1.726874679537344E-05</v>
       </c>
       <c r="K83">
-        <v>-1.655847929473616E-05</v>
+        <v>7.851201901586935E-05</v>
       </c>
       <c r="L83" t="inlineStr">
         <is>
@@ -5428,22 +5428,22 @@
         </is>
       </c>
       <c r="N83">
-        <v>9.54E-05</v>
+        <v>0.002</v>
       </c>
       <c r="O83" t="inlineStr">
         <is>
-          <t>****</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Biomedical and Dental Materials</t>
+          <t>Chemically-Induced Disorders</t>
         </is>
       </c>
       <c r="B84">
-        <v>2.659894195146723E-05</v>
+        <v>-2.368306123728795E-05</v>
       </c>
       <c r="C84" t="inlineStr">
         <is>
@@ -5467,16 +5467,16 @@
         <v>20</v>
       </c>
       <c r="H84">
-        <v>155</v>
+        <v>65</v>
       </c>
       <c r="I84">
-        <v>0.064</v>
+        <v>0.143</v>
       </c>
       <c r="J84">
-        <v>-2.696829108450579E-06</v>
+        <v>-3.452131181951542E-05</v>
       </c>
       <c r="K84">
-        <v>6.306272142651656E-05</v>
+        <v>6.729634139475061E-06</v>
       </c>
       <c r="L84" t="inlineStr">
         <is>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="N84">
-        <v>0.064</v>
+        <v>0.143</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -5500,11 +5500,11 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Stomatognathic System</t>
+          <t>Urogenital System</t>
         </is>
       </c>
       <c r="B85">
-        <v>2.30165786425099E-05</v>
+        <v>5.875923066223105E-06</v>
       </c>
       <c r="C85" t="inlineStr">
         <is>
@@ -5528,16 +5528,16 @@
         <v>20</v>
       </c>
       <c r="H85">
-        <v>153</v>
+        <v>126</v>
       </c>
       <c r="I85">
-        <v>0.076</v>
+        <v>0.452</v>
       </c>
       <c r="J85">
-        <v>-3.336975493926504E-06</v>
+        <v>-1.235365472126587E-05</v>
       </c>
       <c r="K85">
-        <v>4.825561974949289E-05</v>
+        <v>2.534854704613729E-05</v>
       </c>
       <c r="L85" t="inlineStr">
         <is>
@@ -5550,7 +5550,7 @@
         </is>
       </c>
       <c r="N85">
-        <v>0.076</v>
+        <v>0.452</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -5561,11 +5561,11 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Hemic and Immune Systems</t>
+          <t>Biomedical and Dental Materials</t>
         </is>
       </c>
       <c r="B86">
-        <v>-7.642375059108994E-05</v>
+        <v>1.916009606372714E-05</v>
       </c>
       <c r="C86" t="inlineStr">
         <is>
@@ -5589,16 +5589,16 @@
         <v>20</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>155</v>
       </c>
       <c r="I86">
-        <v>9.54E-05</v>
+        <v>0.064</v>
       </c>
       <c r="J86">
-        <v>-7.642375059108994E-05</v>
+        <v>-1.710954882665401E-06</v>
       </c>
       <c r="K86">
-        <v>-2.61114481186224E-05</v>
+        <v>4.008470696955147E-05</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -5611,22 +5611,22 @@
         </is>
       </c>
       <c r="N86">
-        <v>9.54E-05</v>
+        <v>0.064</v>
       </c>
       <c r="O86" t="inlineStr">
         <is>
-          <t>****</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Urogenital System</t>
+          <t>Hemic and Immune Systems</t>
         </is>
       </c>
       <c r="B87">
-        <v>-6.124898966168412E-06</v>
+        <v>-8.547708941004044E-06</v>
       </c>
       <c r="C87" t="inlineStr">
         <is>
@@ -5650,16 +5650,16 @@
         <v>20</v>
       </c>
       <c r="H87">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="I87">
-        <v>0.498</v>
+        <v>0.245</v>
       </c>
       <c r="J87">
-        <v>-2.658909655981671E-05</v>
+        <v>-2.074421652013603E-05</v>
       </c>
       <c r="K87">
-        <v>1.879406894807663E-05</v>
+        <v>6.522459774070863E-06</v>
       </c>
       <c r="L87" t="inlineStr">
         <is>
@@ -5672,7 +5672,7 @@
         </is>
       </c>
       <c r="N87">
-        <v>0.498</v>
+        <v>0.245</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -5683,11 +5683,11 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Viruses</t>
+          <t>Stomatognathic System</t>
         </is>
       </c>
       <c r="B88">
-        <v>-5.063073476659709E-05</v>
+        <v>1.203936043699809E-05</v>
       </c>
       <c r="C88" t="inlineStr">
         <is>
@@ -5711,16 +5711,16 @@
         <v>20</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="I88">
-        <v>1.91E-06</v>
+        <v>0.154</v>
       </c>
       <c r="J88">
-        <v>-5.986527129635379E-05</v>
+        <v>-4.12024006452961E-06</v>
       </c>
       <c r="K88">
-        <v>-4.251071126629379E-05</v>
+        <v>3.073508054664652E-05</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -5733,22 +5733,22 @@
         </is>
       </c>
       <c r="N88">
-        <v>1.91E-06</v>
+        <v>0.154</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
-          <t>****</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Polycyclic Compounds</t>
+          <t>Respiratory System</t>
         </is>
       </c>
       <c r="B89">
-        <v>0.0001012741629492899</v>
+        <v>-8.171763811688743E-06</v>
       </c>
       <c r="C89" t="inlineStr">
         <is>
@@ -5766,22 +5766,22 @@
         </is>
       </c>
       <c r="F89">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G89">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H89">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="I89">
-        <v>0.000456</v>
+        <v>0.475</v>
       </c>
       <c r="J89">
-        <v>5.127416294928986E-05</v>
+        <v>-2.216765709824954E-05</v>
       </c>
       <c r="K89">
-        <v>0.0001038224888478695</v>
+        <v>1.056235989945279E-05</v>
       </c>
       <c r="L89" t="inlineStr">
         <is>
@@ -5794,22 +5794,22 @@
         </is>
       </c>
       <c r="N89">
-        <v>0.000456</v>
+        <v>0.475</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Lipids</t>
+          <t>Stomatognathic Diseases</t>
         </is>
       </c>
       <c r="B90">
-        <v>0.0001012741629492899</v>
+        <v>5.950553735811461E-05</v>
       </c>
       <c r="C90" t="inlineStr">
         <is>
@@ -5827,22 +5827,22 @@
         </is>
       </c>
       <c r="F90">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G90">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H90">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="I90">
-        <v>0.000349</v>
+        <v>0.026</v>
       </c>
       <c r="J90">
-        <v>5.127416294928986E-05</v>
+        <v>1.913101955477402E-05</v>
       </c>
       <c r="K90">
-        <v>0.0001038224888478695</v>
+        <v>9.988005516145516E-05</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -5855,22 +5855,22 @@
         </is>
       </c>
       <c r="N90">
-        <v>0.000349</v>
+        <v>0.026</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Stomatognathic Diseases</t>
+          <t>Microbiological Phenomena</t>
         </is>
       </c>
       <c r="B91">
-        <v>0.0001303089825478666</v>
+        <v>-1.351989371070487E-05</v>
       </c>
       <c r="C91" t="inlineStr">
         <is>
@@ -5888,22 +5888,22 @@
         </is>
       </c>
       <c r="F91">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G91">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="H91">
-        <v>120</v>
+        <v>19</v>
       </c>
       <c r="I91">
-        <v>0.000629</v>
+        <v>0.001</v>
       </c>
       <c r="J91">
-        <v>0.0001012741629492899</v>
+        <v>-6.401687890989821E-05</v>
       </c>
       <c r="K91">
-        <v>0.0001550966517971593</v>
+        <v>-1.302290851151155E-05</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -5916,22 +5916,22 @@
         </is>
       </c>
       <c r="N91">
-        <v>0.000629</v>
+        <v>0.001</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Hemic and Lymphatic Diseases</t>
+          <t>Polycyclic Compounds</t>
         </is>
       </c>
       <c r="B92">
-        <v>0.0001012741629492899</v>
+        <v>7.326143624052513E-06</v>
       </c>
       <c r="C92" t="inlineStr">
         <is>
@@ -5949,22 +5949,22 @@
         </is>
       </c>
       <c r="F92">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="G92">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="H92">
-        <v>91</v>
+        <v>127</v>
       </c>
       <c r="I92">
-        <v>0.001</v>
+        <v>0.43</v>
       </c>
       <c r="J92">
-        <v>5.127416294928986E-05</v>
+        <v>-9.894342316131354E-06</v>
       </c>
       <c r="K92">
-        <v>0.0001038224888478695</v>
+        <v>2.278564745830066E-05</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -5977,22 +5977,22 @@
         </is>
       </c>
       <c r="N92">
-        <v>0.001</v>
+        <v>0.43</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>ns</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Hormones, Hormone Substitutes, and Hormone Antagonists</t>
+          <t>Lipids</t>
         </is>
       </c>
       <c r="B93">
-        <v>0.0001012741629492899</v>
+        <v>5.991988608892301E-05</v>
       </c>
       <c r="C93" t="inlineStr">
         <is>
@@ -6010,22 +6010,22 @@
         </is>
       </c>
       <c r="F93">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="G93">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H93">
-        <v>136</v>
+        <v>168</v>
       </c>
       <c r="I93">
-        <v>0.000378</v>
+        <v>0.02</v>
       </c>
       <c r="J93">
-        <v>5.127416294928986E-05</v>
+        <v>-2.755419059875878E-05</v>
       </c>
       <c r="K93">
-        <v>0.0001038224888478695</v>
+        <v>5.991988608892301E-05</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -6038,72 +6038,1292 @@
         </is>
       </c>
       <c r="N93">
-        <v>0.000378</v>
+        <v>0.02</v>
       </c>
       <c r="O93" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
+          <t>Plant Structures</t>
+        </is>
+      </c>
+      <c r="B94">
+        <v>3.241925544959603E-05</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="F94">
+        <v>20</v>
+      </c>
+      <c r="G94">
+        <v>20</v>
+      </c>
+      <c r="H94">
+        <v>32</v>
+      </c>
+      <c r="I94">
+        <v>0.007</v>
+      </c>
+      <c r="J94">
+        <v>-5.075771952402933E-05</v>
+      </c>
+      <c r="K94">
+        <v>3.241925544959603E-05</v>
+      </c>
+      <c r="L94" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="N94">
+        <v>0.007</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Hemic and Lymphatic Diseases</t>
+        </is>
+      </c>
+      <c r="B95">
+        <v>1.493980155265691E-05</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="F95">
+        <v>20</v>
+      </c>
+      <c r="G95">
+        <v>20</v>
+      </c>
+      <c r="H95">
+        <v>146</v>
+      </c>
+      <c r="I95">
+        <v>0.133</v>
+      </c>
+      <c r="J95">
+        <v>-4.404221632920017E-06</v>
+      </c>
+      <c r="K95">
+        <v>3.169414517068132E-05</v>
+      </c>
+      <c r="L95" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="N95">
+        <v>0.133</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Animal Diseases</t>
+        </is>
+      </c>
+      <c r="B96">
+        <v>5.598357314624319E-05</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="F96">
+        <v>20</v>
+      </c>
+      <c r="G96">
+        <v>20</v>
+      </c>
+      <c r="H96">
+        <v>35</v>
+      </c>
+      <c r="I96">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="J96">
+        <v>-4.102052435003186E-05</v>
+      </c>
+      <c r="K96">
+        <v>5.598357314624319E-05</v>
+      </c>
+      <c r="L96" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="N96">
+        <v>0.008999999999999999</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Hormones, Hormone Substitutes, and Hormone Antagonists</t>
+        </is>
+      </c>
+      <c r="B97">
+        <v>2.771942862650839E-05</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="F97">
+        <v>20</v>
+      </c>
+      <c r="G97">
+        <v>20</v>
+      </c>
+      <c r="H97">
+        <v>169</v>
+      </c>
+      <c r="I97">
+        <v>0.015</v>
+      </c>
+      <c r="J97">
+        <v>4.297101714056439E-06</v>
+      </c>
+      <c r="K97">
+        <v>4.402101991223131E-05</v>
+      </c>
+      <c r="L97" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="N97">
+        <v>0.015</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Fluids and Secretions</t>
+        </is>
+      </c>
+      <c r="B98">
+        <v>7.75137502185016E-07</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="F98">
+        <v>20</v>
+      </c>
+      <c r="G98">
+        <v>20</v>
+      </c>
+      <c r="H98">
+        <v>108</v>
+      </c>
+      <c r="I98">
+        <v>0.927</v>
+      </c>
+      <c r="J98">
+        <v>-1.276800345207428E-05</v>
+      </c>
+      <c r="K98">
+        <v>1.929046322614514E-05</v>
+      </c>
+      <c r="L98" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="N98">
+        <v>0.927</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Immune System Phenomena</t>
+        </is>
+      </c>
+      <c r="B99">
+        <v>5.238480173138556E-05</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="F99">
+        <v>20</v>
+      </c>
+      <c r="G99">
+        <v>20</v>
+      </c>
+      <c r="H99">
+        <v>84</v>
+      </c>
+      <c r="I99">
+        <v>0.444</v>
+      </c>
+      <c r="J99">
+        <v>-3.0868980445226E-05</v>
+      </c>
+      <c r="K99">
+        <v>2.738480173138552E-05</v>
+      </c>
+      <c r="L99" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="N99">
+        <v>0.444</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Integumentary System</t>
+        </is>
+      </c>
+      <c r="B100">
+        <v>2.044963674326118E-06</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="F100">
+        <v>20</v>
+      </c>
+      <c r="G100">
+        <v>20</v>
+      </c>
+      <c r="H100">
+        <v>113</v>
+      </c>
+      <c r="I100">
+        <v>0.784</v>
+      </c>
+      <c r="J100">
+        <v>-1.315557220316678E-05</v>
+      </c>
+      <c r="K100">
+        <v>1.641680209020222E-05</v>
+      </c>
+      <c r="L100" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="N100">
+        <v>0.784</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Embryonic Structures</t>
+        </is>
+      </c>
+      <c r="B101">
+        <v>9.572982559540618E-07</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="F101">
+        <v>20</v>
+      </c>
+      <c r="G101">
+        <v>20</v>
+      </c>
+      <c r="H101">
+        <v>113</v>
+      </c>
+      <c r="I101">
+        <v>0.784</v>
+      </c>
+      <c r="J101">
+        <v>-1.090343416343646E-05</v>
+      </c>
+      <c r="K101">
+        <v>1.42414712534581E-05</v>
+      </c>
+      <c r="L101" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="N101">
+        <v>0.784</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Organism Forms</t>
+        </is>
+      </c>
+      <c r="B102">
+        <v>2.563606135068918E-05</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="F102">
+        <v>20</v>
+      </c>
+      <c r="G102">
+        <v>20</v>
+      </c>
+      <c r="H102">
+        <v>47</v>
+      </c>
+      <c r="I102">
+        <v>0.032</v>
+      </c>
+      <c r="J102">
+        <v>-2.962593425280079E-05</v>
+      </c>
+      <c r="K102">
+        <v>2.563606135068918E-05</v>
+      </c>
+      <c r="L102" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="N102">
+        <v>0.032</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Animal Structures</t>
+        </is>
+      </c>
+      <c r="B103">
+        <v>4.38138455468271E-05</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="F103">
+        <v>20</v>
+      </c>
+      <c r="G103">
+        <v>20</v>
+      </c>
+      <c r="H103">
+        <v>40</v>
+      </c>
+      <c r="I103">
+        <v>0.016</v>
+      </c>
+      <c r="J103">
+        <v>-2.900441115658819E-05</v>
+      </c>
+      <c r="K103">
+        <v>4.38138455468271E-05</v>
+      </c>
+      <c r="L103" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="N103">
+        <v>0.016</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Occupational Diseases</t>
+        </is>
+      </c>
+      <c r="B104">
+        <v>-2.512872364566311E-06</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="F104">
+        <v>20</v>
+      </c>
+      <c r="G104">
+        <v>20</v>
+      </c>
+      <c r="H104">
+        <v>77</v>
+      </c>
+      <c r="I104">
+        <v>0.312</v>
+      </c>
+      <c r="J104">
+        <v>-1.52273158572088E-05</v>
+      </c>
+      <c r="K104">
+        <v>2.355725222432419E-06</v>
+      </c>
+      <c r="L104" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="N104">
+        <v>0.312</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
           <t>Digestive System and Oral Physiological Phenomena</t>
         </is>
       </c>
-      <c r="B94">
-        <v>0.0001470339562619284</v>
-      </c>
-      <c r="C94" t="inlineStr">
-        <is>
-          <t>value</t>
-        </is>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>greece</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>world</t>
-        </is>
-      </c>
-      <c r="F94">
-        <v>9</v>
-      </c>
-      <c r="G94">
-        <v>9</v>
-      </c>
-      <c r="H94">
-        <v>45</v>
-      </c>
-      <c r="I94">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="J94">
-        <v>5.127416294928986E-05</v>
-      </c>
-      <c r="K94">
-        <v>0.0002063708147464491</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>Wilcoxon</t>
-        </is>
-      </c>
-      <c r="M94" t="inlineStr">
-        <is>
-          <t>two.sided</t>
-        </is>
-      </c>
-      <c r="N94">
-        <v>0.008999999999999999</v>
-      </c>
-      <c r="O94" t="inlineStr">
+      <c r="B105">
+        <v>1.765984828262742E-05</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="F105">
+        <v>20</v>
+      </c>
+      <c r="G105">
+        <v>20</v>
+      </c>
+      <c r="H105">
+        <v>151</v>
+      </c>
+      <c r="I105">
+        <v>0.09</v>
+      </c>
+      <c r="J105">
+        <v>-7.458277154551248E-06</v>
+      </c>
+      <c r="K105">
+        <v>4.021507413196948E-05</v>
+      </c>
+      <c r="L105" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="N105">
+        <v>0.09</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Plant Physiological Phenomena</t>
+        </is>
+      </c>
+      <c r="B106">
+        <v>3.904883514253047E-05</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="F106">
+        <v>20</v>
+      </c>
+      <c r="G106">
+        <v>20</v>
+      </c>
+      <c r="H106">
+        <v>68</v>
+      </c>
+      <c r="I106">
+        <v>0.173</v>
+      </c>
+      <c r="J106">
+        <v>-2.568962131012096E-05</v>
+      </c>
+      <c r="K106">
+        <v>3.904883514253047E-05</v>
+      </c>
+      <c r="L106" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="N106">
+        <v>0.173</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Integumentary System Physiological Phenomena</t>
+        </is>
+      </c>
+      <c r="B107">
+        <v>5.168647143218675E-05</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="F107">
+        <v>20</v>
+      </c>
+      <c r="G107">
+        <v>20</v>
+      </c>
+      <c r="H107">
+        <v>84</v>
+      </c>
+      <c r="I107">
+        <v>0.444</v>
+      </c>
+      <c r="J107">
+        <v>-2.175330836744114E-05</v>
+      </c>
+      <c r="K107">
+        <v>5.168647143218675E-05</v>
+      </c>
+      <c r="L107" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="N107">
+        <v>0.444</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Anesthesia and Analgesia</t>
+        </is>
+      </c>
+      <c r="B108">
+        <v>1.962800475396734E-05</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="F108">
+        <v>20</v>
+      </c>
+      <c r="G108">
+        <v>20</v>
+      </c>
+      <c r="H108">
+        <v>20</v>
+      </c>
+      <c r="I108">
+        <v>0.002</v>
+      </c>
+      <c r="J108">
+        <v>-1.61596005015277E-05</v>
+      </c>
+      <c r="K108">
+        <v>1.962800475396734E-05</v>
+      </c>
+      <c r="L108" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="N108">
+        <v>0.002</v>
+      </c>
+      <c r="O108" t="inlineStr">
         <is>
           <t>**</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Endocrine System</t>
+        </is>
+      </c>
+      <c r="B109">
+        <v>6.447418939165396E-06</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="F109">
+        <v>20</v>
+      </c>
+      <c r="G109">
+        <v>20</v>
+      </c>
+      <c r="H109">
+        <v>131</v>
+      </c>
+      <c r="I109">
+        <v>0.349</v>
+      </c>
+      <c r="J109">
+        <v>-8.183387433465953E-06</v>
+      </c>
+      <c r="K109">
+        <v>2.294279460043456E-05</v>
+      </c>
+      <c r="L109" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="N109">
+        <v>0.349</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Bacterial Structures</t>
+        </is>
+      </c>
+      <c r="B110">
+        <v>2.9572374293369E-05</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="F110">
+        <v>20</v>
+      </c>
+      <c r="G110">
+        <v>20</v>
+      </c>
+      <c r="H110">
+        <v>57</v>
+      </c>
+      <c r="I110">
+        <v>0.076</v>
+      </c>
+      <c r="J110">
+        <v>-6.836754058338644E-06</v>
+      </c>
+      <c r="K110">
+        <v>2.9572374293369E-05</v>
+      </c>
+      <c r="L110" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="N110">
+        <v>0.076</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>ns</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Archaea</t>
+        </is>
+      </c>
+      <c r="B111">
+        <v>6.163084097158842E-05</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="F111">
+        <v>20</v>
+      </c>
+      <c r="G111">
+        <v>20</v>
+      </c>
+      <c r="H111">
+        <v>39</v>
+      </c>
+      <c r="I111">
+        <v>0.014</v>
+      </c>
+      <c r="J111">
+        <v>-4.350661673488228E-06</v>
+      </c>
+      <c r="K111">
+        <v>6.163084097158842E-05</v>
+      </c>
+      <c r="L111" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="N111">
+        <v>0.014</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Viral Structures</t>
+        </is>
+      </c>
+      <c r="B112">
+        <v>-8.286974616168054E-07</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="F112">
+        <v>20</v>
+      </c>
+      <c r="G112">
+        <v>20</v>
+      </c>
+      <c r="H112">
+        <v>0</v>
+      </c>
+      <c r="I112">
+        <v>9.44E-05</v>
+      </c>
+      <c r="J112">
+        <v>-3.10761548106302E-06</v>
+      </c>
+      <c r="K112">
+        <v>-8.286974616168054E-07</v>
+      </c>
+      <c r="L112" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="N112">
+        <v>9.44E-05</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>****</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Fungal Structures</t>
+        </is>
+      </c>
+      <c r="B113">
+        <v>-4.143487308084027E-07</v>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="F113">
+        <v>20</v>
+      </c>
+      <c r="G113">
+        <v>20</v>
+      </c>
+      <c r="H113">
+        <v>0</v>
+      </c>
+      <c r="I113">
+        <v>9.07E-05</v>
+      </c>
+      <c r="J113">
+        <v>-2.900441115658819E-06</v>
+      </c>
+      <c r="K113">
+        <v>-4.143487308084027E-07</v>
+      </c>
+      <c r="L113" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="N113">
+        <v>9.07E-05</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>****</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Disorders of Environmental Origin</t>
+        </is>
+      </c>
+      <c r="B114">
+        <v>-2.071743654042013E-07</v>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>value</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>greece</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>world</t>
+        </is>
+      </c>
+      <c r="F114">
+        <v>17</v>
+      </c>
+      <c r="G114">
+        <v>17</v>
+      </c>
+      <c r="H114">
+        <v>0</v>
+      </c>
+      <c r="I114">
+        <v>0.000303</v>
+      </c>
+      <c r="J114">
+        <v>-1.243046192425208E-06</v>
+      </c>
+      <c r="K114">
+        <v>-2.071743654042013E-07</v>
+      </c>
+      <c r="L114" t="inlineStr">
+        <is>
+          <t>Wilcoxon</t>
+        </is>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>two.sided</t>
+        </is>
+      </c>
+      <c r="N114">
+        <v>0.000303</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>***</t>
         </is>
       </c>
     </row>
